--- a/agesexgene/nets.xlsx
+++ b/agesexgene/nets.xlsx
@@ -27,12 +27,13 @@
     <sheet name="19" r:id="rId21" sheetId="19"/>
     <sheet name="20" r:id="rId22" sheetId="20"/>
     <sheet name="21" r:id="rId23" sheetId="21"/>
+    <sheet name="22" r:id="rId24" sheetId="22"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="13">
   <si>
     <t>X1</t>
   </si>
@@ -159,17 +160,17 @@
         <v>85.0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01699570726596264</v>
+        <v>-0.01332281802741751</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01699570726596264</v>
+        <v>0.01332281802741751</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>1.286744821830525</v>
+        <v>1.2810039666419195</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.286744821830525</v>
+        <v>-1.2810039666419195</v>
       </c>
       <c r="I2"/>
     </row>
@@ -184,17 +185,17 @@
         <v>222.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.06254390878768139</v>
+        <v>-0.059589678583480056</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06254390878768139</v>
+        <v>0.059589678583480056</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>1.286744821830525</v>
+        <v>1.2810039666419195</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.286744821830525</v>
+        <v>-1.2810039666419195</v>
       </c>
       <c r="I3"/>
     </row>
@@ -209,17 +210,17 @@
         <v>231.0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5638327948616185</v>
+        <v>-0.5675894867100622</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5638327948616185</v>
+        <v>0.5675894867100622</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>1.286744821830525</v>
+        <v>1.2810039666419195</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.286744821830525</v>
+        <v>-1.2810039666419195</v>
       </c>
       <c r="I4"/>
     </row>
@@ -234,17 +235,17 @@
         <v>1.0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6433724109152625</v>
+        <v>-0.6405019833209598</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6433724109152625</v>
+        <v>0.6405019833209598</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>1.286744821830525</v>
+        <v>1.2810039666419195</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.286744821830525</v>
+        <v>-1.2810039666419195</v>
       </c>
       <c r="I5"/>
     </row>
@@ -293,23 +294,23 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>80.0</v>
+        <v>142.0</v>
       </c>
       <c r="C2" t="n">
-        <v>81.0</v>
+        <v>146.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11719302075271462</v>
+        <v>0.060519432515559086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.11719302075271462</v>
+        <v>0.060519432515559086</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>0.23438604150542924</v>
+        <v>0.12103886503111817</v>
       </c>
       <c r="H2" t="n">
-        <v>0.23438604150542924</v>
+        <v>0.12103886503111817</v>
       </c>
       <c r="I2"/>
     </row>
@@ -318,23 +319,23 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>70.0</v>
+        <v>67.0</v>
       </c>
       <c r="C3" t="n">
-        <v>70.0</v>
+        <v>67.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11719302075271462</v>
+        <v>0.060519432515559086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.11719302075271462</v>
+        <v>0.060519432515559086</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.23438604150542924</v>
+        <v>0.12103886503111817</v>
       </c>
       <c r="H3" t="n">
-        <v>0.23438604150542924</v>
+        <v>0.12103886503111817</v>
       </c>
       <c r="I3"/>
     </row>
@@ -383,23 +384,23 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>242.0</v>
+        <v>80.0</v>
       </c>
       <c r="C2" t="n">
-        <v>246.0</v>
+        <v>81.0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.18827139787021846</v>
+        <v>0.1149265766179657</v>
       </c>
       <c r="E2" t="n">
-        <v>0.18827139787021846</v>
+        <v>0.1149265766179657</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>0.602124699473411</v>
+        <v>0.2298531532359314</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.602124699473411</v>
+        <v>0.2298531532359314</v>
       </c>
       <c r="I2"/>
     </row>
@@ -408,75 +409,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>325.0</v>
+        <v>69.0</v>
       </c>
       <c r="C3" t="n">
-        <v>329.0</v>
+        <v>70.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.112790951866487</v>
+        <v>0.1149265766179657</v>
       </c>
       <c r="E3" t="n">
-        <v>0.112790951866487</v>
+        <v>0.1149265766179657</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.602124699473411</v>
+        <v>0.2298531532359314</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.602124699473411</v>
+        <v>0.2298531532359314</v>
       </c>
       <c r="I3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.006690355286913037</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.006690355286913037</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4" t="n">
-        <v>0.602124699473411</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-0.602124699473411</v>
-      </c>
-      <c r="I4"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="n">
-        <v>149.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>153.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.29437199444979245</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.29437199444979245</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5" t="n">
-        <v>0.602124699473411</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-0.602124699473411</v>
-      </c>
-      <c r="I5"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -523,23 +474,23 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>118.0</v>
+        <v>242.0</v>
       </c>
       <c r="C2" t="n">
-        <v>121.0</v>
+        <v>246.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.028431924004045078</v>
+        <v>-0.18323754233929662</v>
       </c>
       <c r="E2" t="n">
-        <v>0.028431924004045078</v>
+        <v>0.18323754233929662</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>0.056863848008090155</v>
+        <v>0.5874559786038395</v>
       </c>
       <c r="H2" t="n">
-        <v>0.056863848008090155</v>
+        <v>-0.5874559786038395</v>
       </c>
       <c r="I2"/>
     </row>
@@ -548,25 +499,75 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>77.0</v>
+        <v>325.0</v>
       </c>
       <c r="C3" t="n">
-        <v>78.0</v>
+        <v>329.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.028431924004045078</v>
+        <v>-0.1104904469626231</v>
       </c>
       <c r="E3" t="n">
-        <v>0.028431924004045078</v>
+        <v>0.1104904469626231</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.056863848008090155</v>
+        <v>0.5874559786038395</v>
       </c>
       <c r="H3" t="n">
-        <v>0.056863848008090155</v>
+        <v>-0.5874559786038395</v>
       </c>
       <c r="I3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.0030159870439089207</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0030159870439089207</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4" t="n">
+        <v>0.5874559786038395</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.5874559786038395</v>
+      </c>
+      <c r="I4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.2907120022580108</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2907120022580108</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" t="n">
+        <v>0.5874559786038395</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.5874559786038395</v>
+      </c>
+      <c r="I5"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -613,23 +614,23 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>115.0</v>
+        <v>118.0</v>
       </c>
       <c r="C2" t="n">
-        <v>116.0</v>
+        <v>121.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03993362028793734</v>
+        <v>0.025051966752508217</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03993362028793734</v>
+        <v>0.025051966752508217</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>0.07986724057587467</v>
+        <v>0.050103933505016435</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07986724057587467</v>
+        <v>0.050103933505016435</v>
       </c>
       <c r="I2"/>
     </row>
@@ -638,23 +639,23 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>105.0</v>
+        <v>77.0</v>
       </c>
       <c r="C3" t="n">
-        <v>106.0</v>
+        <v>78.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03993362028793734</v>
+        <v>0.025051966752508217</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03993362028793734</v>
+        <v>0.025051966752508217</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.07986724057587467</v>
+        <v>0.050103933505016435</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07986724057587467</v>
+        <v>0.050103933505016435</v>
       </c>
       <c r="I3"/>
     </row>
@@ -703,23 +704,23 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>207.0</v>
+        <v>113.0</v>
       </c>
       <c r="C2" t="n">
-        <v>211.0</v>
+        <v>116.0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.12458177087052319</v>
+        <v>0.036653064817158736</v>
       </c>
       <c r="E2" t="n">
-        <v>0.12458177087052319</v>
+        <v>0.036653064817158736</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>0.24916354174104638</v>
+        <v>0.07330612963431747</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.24916354174104638</v>
+        <v>0.07330612963431747</v>
       </c>
       <c r="I2"/>
     </row>
@@ -728,23 +729,23 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>126.0</v>
+        <v>105.0</v>
       </c>
       <c r="C3" t="n">
-        <v>129.0</v>
+        <v>106.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.12458177087052319</v>
+        <v>0.036653064817158736</v>
       </c>
       <c r="E3" t="n">
-        <v>0.12458177087052319</v>
+        <v>0.036653064817158736</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.24916354174104638</v>
+        <v>0.07330612963431747</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.24916354174104638</v>
+        <v>0.07330612963431747</v>
       </c>
       <c r="I3"/>
     </row>
@@ -793,23 +794,23 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0</v>
+        <v>207.0</v>
       </c>
       <c r="C2" t="n">
-        <v>183.0</v>
+        <v>211.0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0436304192319287</v>
+        <v>-0.12248863826005607</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0436304192319287</v>
+        <v>0.12248863826005607</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>0.0872608384638574</v>
+        <v>0.24497727652011214</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0872608384638574</v>
+        <v>-0.24497727652011214</v>
       </c>
       <c r="I2"/>
     </row>
@@ -818,23 +819,23 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>148.0</v>
+        <v>126.0</v>
       </c>
       <c r="C3" t="n">
-        <v>152.0</v>
+        <v>129.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0436304192319287</v>
+        <v>-0.12248863826005607</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0436304192319287</v>
+        <v>0.12248863826005607</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.0872608384638574</v>
+        <v>0.24497727652011214</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0872608384638574</v>
+        <v>-0.24497727652011214</v>
       </c>
       <c r="I3"/>
     </row>
@@ -883,23 +884,23 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>220.0</v>
+        <v>179.0</v>
       </c>
       <c r="C2" t="n">
-        <v>224.0</v>
+        <v>183.0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.23509584098504807</v>
+        <v>-0.040403287031205604</v>
       </c>
       <c r="E2" t="n">
-        <v>0.23509584098504807</v>
+        <v>0.040403287031205604</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>0.47019168197009614</v>
+        <v>0.08080657406241121</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.47019168197009614</v>
+        <v>-0.08080657406241121</v>
       </c>
       <c r="I2"/>
     </row>
@@ -908,23 +909,23 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>164.0</v>
+        <v>148.0</v>
       </c>
       <c r="C3" t="n">
-        <v>168.0</v>
+        <v>152.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.23509584098504807</v>
+        <v>-0.040403287031205604</v>
       </c>
       <c r="E3" t="n">
-        <v>0.23509584098504807</v>
+        <v>0.040403287031205604</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.47019168197009614</v>
+        <v>0.08080657406241121</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.47019168197009614</v>
+        <v>-0.08080657406241121</v>
       </c>
       <c r="I3"/>
     </row>
@@ -973,23 +974,23 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>213.0</v>
+        <v>220.0</v>
       </c>
       <c r="C2" t="n">
-        <v>217.0</v>
+        <v>224.0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.14734123976448169</v>
+        <v>-0.2344753972945427</v>
       </c>
       <c r="E2" t="n">
-        <v>0.14734123976448169</v>
+        <v>0.2344753972945427</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>0.29468247952896337</v>
+        <v>0.4689507945890854</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.29468247952896337</v>
+        <v>-0.4689507945890854</v>
       </c>
       <c r="I2"/>
     </row>
@@ -998,23 +999,23 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>175.0</v>
+        <v>164.0</v>
       </c>
       <c r="C3" t="n">
-        <v>179.0</v>
+        <v>168.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.14734123976448169</v>
+        <v>-0.2344753972945427</v>
       </c>
       <c r="E3" t="n">
-        <v>0.14734123976448169</v>
+        <v>0.2344753972945427</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.29468247952896337</v>
+        <v>0.4689507945890854</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.29468247952896337</v>
+        <v>-0.4689507945890854</v>
       </c>
       <c r="I3"/>
     </row>
@@ -1063,23 +1064,23 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>305.0</v>
+        <v>213.0</v>
       </c>
       <c r="C2" t="n">
-        <v>309.0</v>
+        <v>217.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09960575230244231</v>
+        <v>-0.14555655093702521</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09960575230244231</v>
+        <v>0.14555655093702521</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>0.19921150460488463</v>
+        <v>0.29111310187405043</v>
       </c>
       <c r="H2" t="n">
-        <v>0.19921150460488463</v>
+        <v>-0.29111310187405043</v>
       </c>
       <c r="I2"/>
     </row>
@@ -1088,23 +1089,23 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>194.0</v>
+        <v>175.0</v>
       </c>
       <c r="C3" t="n">
-        <v>198.0</v>
+        <v>179.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09960575230244231</v>
+        <v>-0.14555655093702521</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09960575230244231</v>
+        <v>0.14555655093702521</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.19921150460488463</v>
+        <v>0.29111310187405043</v>
       </c>
       <c r="H3" t="n">
-        <v>0.19921150460488463</v>
+        <v>-0.29111310187405043</v>
       </c>
       <c r="I3"/>
     </row>
@@ -1153,23 +1154,23 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>318.0</v>
+        <v>305.0</v>
       </c>
       <c r="C2" t="n">
-        <v>322.0</v>
+        <v>309.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.10689360891684949</v>
+        <v>0.0971192214789132</v>
       </c>
       <c r="E2" t="n">
-        <v>0.10689360891684949</v>
+        <v>0.0971192214789132</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>0.21378721783369897</v>
+        <v>0.1942384429578264</v>
       </c>
       <c r="H2" t="n">
-        <v>0.21378721783369897</v>
+        <v>0.1942384429578264</v>
       </c>
       <c r="I2"/>
     </row>
@@ -1178,23 +1179,23 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>211.0</v>
+        <v>194.0</v>
       </c>
       <c r="C3" t="n">
-        <v>215.0</v>
+        <v>198.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.10689360891684949</v>
+        <v>0.0971192214789132</v>
       </c>
       <c r="E3" t="n">
-        <v>0.10689360891684949</v>
+        <v>0.0971192214789132</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.21378721783369897</v>
+        <v>0.1942384429578264</v>
       </c>
       <c r="H3" t="n">
-        <v>0.21378721783369897</v>
+        <v>0.1942384429578264</v>
       </c>
       <c r="I3"/>
     </row>
@@ -1249,17 +1250,17 @@
         <v>100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.06718654965093177</v>
+        <v>-0.06430777218078876</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06718654965093177</v>
+        <v>0.06430777218078876</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>0.13437309930186353</v>
+        <v>0.12861554436157752</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.13437309930186353</v>
+        <v>-0.12861554436157752</v>
       </c>
       <c r="I2"/>
     </row>
@@ -1274,17 +1275,17 @@
         <v>28.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.06718654965093177</v>
+        <v>-0.06430777218078876</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06718654965093177</v>
+        <v>0.06430777218078876</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.13437309930186353</v>
+        <v>0.12861554436157752</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.13437309930186353</v>
+        <v>-0.12861554436157752</v>
       </c>
       <c r="I3"/>
     </row>
@@ -1333,23 +1334,23 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>271.0</v>
+        <v>318.0</v>
       </c>
       <c r="C2" t="n">
-        <v>275.0</v>
+        <v>322.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3385265604159146</v>
+        <v>0.10445088031953055</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3385265604159146</v>
+        <v>0.10445088031953055</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>0.6770531208318292</v>
+        <v>0.2089017606390611</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6770531208318292</v>
+        <v>0.2089017606390611</v>
       </c>
       <c r="I2"/>
     </row>
@@ -1358,50 +1359,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>237.0</v>
+        <v>211.0</v>
       </c>
       <c r="C3" t="n">
-        <v>241.0</v>
+        <v>215.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.30424468759823853</v>
+        <v>0.10445088031953055</v>
       </c>
       <c r="E3" t="n">
-        <v>0.30424468759823853</v>
+        <v>0.10445088031953055</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.6770531208318292</v>
+        <v>0.2089017606390611</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6770531208318292</v>
+        <v>0.2089017606390611</v>
       </c>
       <c r="I3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>255.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>259.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.034281872817676105</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.034281872817676105</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4" t="n">
-        <v>0.6770531208318292</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.6770531208318292</v>
-      </c>
-      <c r="I4"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1448,23 +1424,23 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>321.0</v>
+        <v>271.0</v>
       </c>
       <c r="C2" t="n">
-        <v>325.0</v>
+        <v>275.0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3215602321859005</v>
+        <v>0.33535846381775086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3215602321859005</v>
+        <v>0.33535846381775086</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>0.643120464371801</v>
+        <v>0.6707169276355017</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.643120464371801</v>
+        <v>0.6707169276355017</v>
       </c>
       <c r="I2"/>
     </row>
@@ -1473,23 +1449,138 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.30450534226924764</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.30450534226924764</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3" t="n">
+        <v>0.6707169276355017</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6707169276355017</v>
+      </c>
+      <c r="I3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>259.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03085312154850324</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.03085312154850324</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4" t="n">
+        <v>0.6707169276355017</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6707169276355017</v>
+      </c>
+      <c r="I4"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.3220688104089306</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.3220688104089306</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2" t="n">
+        <v>0.6441376208178612</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.6441376208178612</v>
+      </c>
+      <c r="I2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="n">
         <v>315.0</v>
       </c>
       <c r="C3" t="n">
         <v>319.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3215602321859005</v>
+        <v>-0.3220688104089306</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3215602321859005</v>
+        <v>0.3220688104089306</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.643120464371801</v>
+        <v>0.6441376208178612</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.643120464371801</v>
+        <v>-0.6441376208178612</v>
       </c>
       <c r="I3"/>
     </row>
@@ -1544,17 +1635,17 @@
         <v>169.0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2169118551072899</v>
+        <v>-0.21607363740494392</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2169118551072899</v>
+        <v>0.21607363740494392</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>0.4338237102145798</v>
+        <v>0.43214727480988785</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.4338237102145798</v>
+        <v>-0.43214727480988785</v>
       </c>
       <c r="I2"/>
     </row>
@@ -1569,17 +1660,17 @@
         <v>29.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2169118551072899</v>
+        <v>-0.21607363740494392</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2169118551072899</v>
+        <v>0.21607363740494392</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.4338237102145798</v>
+        <v>0.43214727480988785</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.4338237102145798</v>
+        <v>-0.43214727480988785</v>
       </c>
       <c r="I3"/>
     </row>
@@ -1634,17 +1725,17 @@
         <v>177.0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.09922970588163985</v>
+        <v>-0.09279343382172595</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09922970588163985</v>
+        <v>0.09279343382172595</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>0.1984594117632797</v>
+        <v>0.1855868676434519</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.1984594117632797</v>
+        <v>-0.1855868676434519</v>
       </c>
       <c r="I2"/>
     </row>
@@ -1659,17 +1750,17 @@
         <v>30.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.005405908177366992</v>
+        <v>-0.0016140000866770967</v>
       </c>
       <c r="E3" t="n">
-        <v>0.005405908177366992</v>
+        <v>0.0016140000866770967</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.1984594117632797</v>
+        <v>0.1855868676434519</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1984594117632797</v>
+        <v>-0.1855868676434519</v>
       </c>
       <c r="I3"/>
     </row>
@@ -1678,23 +1769,23 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>72.0</v>
+        <v>71.0</v>
       </c>
       <c r="C4" t="n">
         <v>72.0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.09382379770427285</v>
+        <v>-0.09117943373504885</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09382379770427285</v>
+        <v>0.09117943373504885</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.1984594117632797</v>
+        <v>0.1855868676434519</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.1984594117632797</v>
+        <v>-0.1855868676434519</v>
       </c>
       <c r="I4"/>
     </row>
@@ -1749,17 +1840,17 @@
         <v>154.0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.03407456342286675</v>
+        <v>-0.030694581432899756</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03407456342286675</v>
+        <v>0.030694581432899756</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>0.0681491268457335</v>
+        <v>0.06138916286579951</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0681491268457335</v>
+        <v>-0.06138916286579951</v>
       </c>
       <c r="I2"/>
     </row>
@@ -1774,17 +1865,17 @@
         <v>35.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.03407456342286675</v>
+        <v>-0.030694581432899756</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03407456342286675</v>
+        <v>0.030694581432899756</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.0681491268457335</v>
+        <v>0.06138916286579951</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0681491268457335</v>
+        <v>-0.06138916286579951</v>
       </c>
       <c r="I3"/>
     </row>
@@ -1839,17 +1930,17 @@
         <v>294.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2766847678057348</v>
+        <v>0.27655304698217087</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2766847678057348</v>
+        <v>0.27655304698217087</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>1.4475052848313814</v>
+        <v>1.436379088866535</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4475052848313814</v>
+        <v>1.436379088866535</v>
       </c>
       <c r="I2"/>
     </row>
@@ -1864,17 +1955,17 @@
         <v>301.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19160148711747318</v>
+        <v>0.1865222160218329</v>
       </c>
       <c r="E3" t="n">
-        <v>0.19160148711747318</v>
+        <v>0.1865222160218329</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>1.4475052848313814</v>
+        <v>1.436379088866535</v>
       </c>
       <c r="H3" t="n">
-        <v>1.4475052848313814</v>
+        <v>1.436379088866535</v>
       </c>
       <c r="I3"/>
     </row>
@@ -1889,17 +1980,17 @@
         <v>317.0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.31927007431242604</v>
+        <v>0.315987940047667</v>
       </c>
       <c r="E4" t="n">
-        <v>0.31927007431242604</v>
+        <v>0.315987940047667</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>1.4475052848313814</v>
+        <v>1.436379088866535</v>
       </c>
       <c r="H4" t="n">
-        <v>1.4475052848313814</v>
+        <v>1.436379088866535</v>
       </c>
       <c r="I4"/>
     </row>
@@ -1914,17 +2005,17 @@
         <v>36.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.40448256810326466</v>
+        <v>0.4022016043856005</v>
       </c>
       <c r="E5" t="n">
-        <v>0.40448256810326466</v>
+        <v>0.4022016043856005</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>1.4475052848313814</v>
+        <v>1.436379088866535</v>
       </c>
       <c r="H5" t="n">
-        <v>1.4475052848313814</v>
+        <v>1.436379088866535</v>
       </c>
       <c r="I5"/>
     </row>
@@ -1939,17 +2030,17 @@
         <v>150.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2554663874924827</v>
+        <v>0.25511428142926373</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2554663874924827</v>
+        <v>0.25511428142926373</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>1.4475052848313814</v>
+        <v>1.436379088866535</v>
       </c>
       <c r="H6" t="n">
-        <v>1.4475052848313814</v>
+        <v>1.436379088866535</v>
       </c>
       <c r="I6"/>
     </row>
@@ -2004,17 +2095,17 @@
         <v>128.0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2774931044184986</v>
+        <v>-0.27740169668888404</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2774931044184986</v>
+        <v>0.27740169668888404</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>0.5549862088369972</v>
+        <v>0.5548033933777681</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5549862088369972</v>
+        <v>-0.5548033933777681</v>
       </c>
       <c r="I2"/>
     </row>
@@ -2029,17 +2120,17 @@
         <v>45.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2774931044184986</v>
+        <v>-0.27740169668888404</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2774931044184986</v>
+        <v>0.27740169668888404</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.5549862088369972</v>
+        <v>0.5548033933777681</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5549862088369972</v>
+        <v>-0.5548033933777681</v>
       </c>
       <c r="I3"/>
     </row>
@@ -2094,17 +2185,17 @@
         <v>157.0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.019089002442421316</v>
+        <v>-0.015502647493338882</v>
       </c>
       <c r="E2" t="n">
-        <v>0.019089002442421316</v>
+        <v>0.015502647493338882</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>0.03817800488484263</v>
+        <v>0.031005294986677763</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.03817800488484263</v>
+        <v>-0.031005294986677763</v>
       </c>
       <c r="I2"/>
     </row>
@@ -2113,23 +2204,23 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>56.0</v>
+        <v>55.0</v>
       </c>
       <c r="C3" t="n">
         <v>55.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.019089002442421316</v>
+        <v>-0.015502647493338882</v>
       </c>
       <c r="E3" t="n">
-        <v>0.019089002442421316</v>
+        <v>0.015502647493338882</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.03817800488484263</v>
+        <v>0.031005294986677763</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.03817800488484263</v>
+        <v>-0.031005294986677763</v>
       </c>
       <c r="I3"/>
     </row>
@@ -2184,17 +2275,17 @@
         <v>286.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.044481623726125456</v>
+        <v>0.041181513932830295</v>
       </c>
       <c r="E2" t="n">
-        <v>0.044481623726125456</v>
+        <v>0.041181513932830295</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>0.08896324745225091</v>
+        <v>0.08236302786566059</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08896324745225091</v>
+        <v>0.08236302786566059</v>
       </c>
       <c r="I2"/>
     </row>
@@ -2209,17 +2300,17 @@
         <v>66.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.044481623726125456</v>
+        <v>0.041181513932830295</v>
       </c>
       <c r="E3" t="n">
-        <v>0.044481623726125456</v>
+        <v>0.041181513932830295</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.08896324745225091</v>
+        <v>0.08236302786566059</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08896324745225091</v>
+        <v>0.08236302786566059</v>
       </c>
       <c r="I3"/>
     </row>
